--- a/问题3-最终结果.xlsx
+++ b/问题3-最终结果.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.57253646850586</v>
+        <v>16.97049903869629</v>
       </c>
       <c r="E2" t="n">
-        <v>2.292000770568848</v>
+        <v>3.021513938903809</v>
       </c>
       <c r="F2" t="n">
-        <v>19.77371025085449</v>
+        <v>20.02080726623535</v>
       </c>
       <c r="G2" t="n">
-        <v>2.188791990280151</v>
+        <v>2.146612405776978</v>
       </c>
       <c r="H2" t="n">
-        <v>8.494222640991211</v>
+        <v>8.775727272033691</v>
       </c>
     </row>
     <row r="3">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.09384155273438</v>
+        <v>16.54765510559082</v>
       </c>
       <c r="E3" t="n">
-        <v>3.717861890792847</v>
+        <v>3.984017133712769</v>
       </c>
       <c r="F3" t="n">
-        <v>20.73781585693359</v>
+        <v>20.49580001831055</v>
       </c>
       <c r="G3" t="n">
-        <v>2.155630350112915</v>
+        <v>2.121320724487305</v>
       </c>
       <c r="H3" t="n">
-        <v>9.088966369628906</v>
+        <v>9.301704406738281</v>
       </c>
     </row>
     <row r="4">
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.04972457885742</v>
+        <v>17.42307472229004</v>
       </c>
       <c r="E4" t="n">
-        <v>2.01829719543457</v>
+        <v>2.317209243774414</v>
       </c>
       <c r="F4" t="n">
-        <v>20.02077484130859</v>
+        <v>19.89713859558105</v>
       </c>
       <c r="G4" t="n">
-        <v>2.323251247406006</v>
+        <v>2.28978443145752</v>
       </c>
       <c r="H4" t="n">
-        <v>7.777663707733154</v>
+        <v>7.964914798736572</v>
       </c>
     </row>
     <row r="5">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.91192245483398</v>
+        <v>16.44349479675293</v>
       </c>
       <c r="E5" t="n">
-        <v>2.690329074859619</v>
+        <v>2.948997020721436</v>
       </c>
       <c r="F5" t="n">
-        <v>19.47582054138184</v>
+        <v>19.38945388793945</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04489541053772</v>
+        <v>2.024936199188232</v>
       </c>
       <c r="H5" t="n">
-        <v>9.068524360656738</v>
+        <v>9.251485824584961</v>
       </c>
     </row>
     <row r="6">
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20.09021759033203</v>
+        <v>19.49539375305176</v>
       </c>
       <c r="E6" t="n">
-        <v>5.963065624237061</v>
+        <v>6.333109855651855</v>
       </c>
       <c r="F6" t="n">
-        <v>26.06250381469727</v>
+        <v>25.66335678100586</v>
       </c>
       <c r="G6" t="n">
-        <v>2.367352724075317</v>
+        <v>2.328237533569336</v>
       </c>
       <c r="H6" t="n">
-        <v>10.79596519470215</v>
+        <v>10.9406566619873</v>
       </c>
     </row>
     <row r="7">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15.67792224884033</v>
+        <v>15.48312282562256</v>
       </c>
       <c r="E7" t="n">
-        <v>1.575555205345154</v>
+        <v>2.205222606658936</v>
       </c>
       <c r="F7" t="n">
-        <v>17.13063430786133</v>
+        <v>17.61673164367676</v>
       </c>
       <c r="G7" t="n">
-        <v>2.054172277450562</v>
+        <v>2.084053039550781</v>
       </c>
       <c r="H7" t="n">
-        <v>7.745282173156738</v>
+        <v>7.868435859680176</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.40840148925781</v>
+        <v>16.05049324035645</v>
       </c>
       <c r="E8" t="n">
-        <v>2.144718647003174</v>
+        <v>2.030118942260742</v>
       </c>
       <c r="F8" t="n">
-        <v>18.50262069702148</v>
+        <v>18.22988891601562</v>
       </c>
       <c r="G8" t="n">
-        <v>2.086578130722046</v>
+        <v>2.075947046279907</v>
       </c>
       <c r="H8" t="n">
-        <v>8.155359268188477</v>
+        <v>8.082951545715332</v>
       </c>
     </row>
     <row r="9">
@@ -695,19 +695,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.4197826385498</v>
+        <v>16.07792282104492</v>
       </c>
       <c r="E9" t="n">
-        <v>7.455871105194092</v>
+        <v>7.229803085327148</v>
       </c>
       <c r="F9" t="n">
-        <v>23.63595008850098</v>
+        <v>23.17446327209473</v>
       </c>
       <c r="G9" t="n">
-        <v>1.948973298072815</v>
+        <v>1.861235499382019</v>
       </c>
       <c r="H9" t="n">
-        <v>13.05235767364502</v>
+        <v>13.66705703735352</v>
       </c>
     </row>
     <row r="10">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15.85868072509766</v>
+        <v>15.53170776367188</v>
       </c>
       <c r="E10" t="n">
-        <v>1.031875491142273</v>
+        <v>1.330824732780457</v>
       </c>
       <c r="F10" t="n">
-        <v>16.91022682189941</v>
+        <v>16.91670036315918</v>
       </c>
       <c r="G10" t="n">
-        <v>2.048007249832153</v>
+        <v>2.059254884719849</v>
       </c>
       <c r="H10" t="n">
-        <v>7.510234355926514</v>
+        <v>7.570693016052246</v>
       </c>
     </row>
     <row r="11">
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.77150535583496</v>
+        <v>17.19359970092773</v>
       </c>
       <c r="E11" t="n">
-        <v>5.001708507537842</v>
+        <v>5.403522491455078</v>
       </c>
       <c r="F11" t="n">
-        <v>22.71185302734375</v>
+        <v>22.26976013183594</v>
       </c>
       <c r="G11" t="n">
-        <v>2.175155401229858</v>
+        <v>2.150086641311646</v>
       </c>
       <c r="H11" t="n">
-        <v>10.40492153167725</v>
+        <v>10.43177890777588</v>
       </c>
     </row>
     <row r="12">
@@ -785,19 +785,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.26436805725098</v>
+        <v>17.59425926208496</v>
       </c>
       <c r="E12" t="n">
-        <v>3.370161056518555</v>
+        <v>3.458661556243896</v>
       </c>
       <c r="F12" t="n">
-        <v>21.65629386901855</v>
+        <v>21.02328681945801</v>
       </c>
       <c r="G12" t="n">
-        <v>2.236976861953735</v>
+        <v>2.178889513015747</v>
       </c>
       <c r="H12" t="n">
-        <v>9.320108413696289</v>
+        <v>9.346397399902344</v>
       </c>
     </row>
     <row r="13">
@@ -815,19 +815,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19.70650863647461</v>
+        <v>18.73606491088867</v>
       </c>
       <c r="E13" t="n">
-        <v>3.207910060882568</v>
+        <v>3.648802995681763</v>
       </c>
       <c r="F13" t="n">
-        <v>23.11797523498535</v>
+        <v>22.37228965759277</v>
       </c>
       <c r="G13" t="n">
-        <v>2.395740270614624</v>
+        <v>2.310912370681763</v>
       </c>
       <c r="H13" t="n">
-        <v>9.294219017028809</v>
+        <v>9.305499076843262</v>
       </c>
     </row>
   </sheetData>
